--- a/examples/example1.xlsx
+++ b/examples/example1.xlsx
@@ -531,13 +531,13 @@
   </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="Q3" activeCellId="0" sqref="Q3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.74"/>
@@ -886,7 +886,7 @@
       <selection pane="bottomLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.69"/>
@@ -1104,7 +1104,7 @@
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.31"/>

--- a/examples/example1.xlsx
+++ b/examples/example1.xlsx
@@ -22,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t xml:space="preserve">variabile</t>
   </si>
   <si>
-    <t xml:space="preserve">descrizione_e_unita_misura</t>
-  </si>
-  <si>
     <t xml:space="preserve">tipo</t>
   </si>
   <si>
@@ -48,27 +45,12 @@
     <t xml:space="preserve">massimo</t>
   </si>
   <si>
-    <t xml:space="preserve">ignora_celle_vuote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elenco_nella_cella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input_mostra</t>
-  </si>
-  <si>
     <t xml:space="preserve">input_titolo</t>
   </si>
   <si>
     <t xml:space="preserve">input_messaggio</t>
   </si>
   <si>
-    <t xml:space="preserve">errore_mostra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errore_tipo</t>
-  </si>
-  <si>
     <t xml:space="preserve">errore_titolo</t>
   </si>
   <si>
@@ -78,178 +60,193 @@
     <t xml:space="preserve">id_pz</t>
   </si>
   <si>
+    <t xml:space="preserve">intero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identificativo paziente</t>
   </si>
   <si>
-    <t xml:space="preserve">intero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=</t>
+    <t xml:space="preserve">Inserire un progressivo numerico (partendo da 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserimento erroneo: deve essere un intero &gt;=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altezza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altezza (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserire l'altezza in metri (es 1.8 = 1 metro e 80 cm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserimento erroneo: deve essere un valore tra 0 e 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elenco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserire il sesso attuale del paziente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserimento erroneo: maschio o femmina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diabete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si/no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paziente diabetico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserire se il paziente è diabetico oppure no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserimento erroneo: deve essere sì o no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_arr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data arruolamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserire data di arruolamento (dopo il 1/1/2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve essere una data &gt;= 1/1/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserire note di servizio qui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non visualizzato …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">… essendo la colonna non controllata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modalita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique_list_name</t>
   </si>
   <si>
     <t xml:space="preserve">Sì</t>
   </si>
   <si>
-    <t xml:space="preserve">Inserire un progressivo numerico (partendo da 1)</t>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maschio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Femmina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titolo studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elementare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">superiore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">università</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sf12_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eccellente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molto buona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passabile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scadente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sf12_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sì parecchio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sì parzialmente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No per nulla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sì/No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error type</t>
   </si>
   <si>
     <t xml:space="preserve">stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserimento erroneo: deve essere un intero &gt;=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">altezza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altezza (m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserire l'altezza in metri (es 1.8 = 1 metro e 80 cm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserimento erroneo: deve essere un valore tra 0 e 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elenco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserire il sesso attuale del paziente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserimento erroneo: maschio o femmina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diabete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paziente diabetico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">si/no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserire se il paziente è diabetico oppure no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserimento erroneo: deve essere sì o no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_arr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data arruolamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inserire data di arruolamento (dopo il 1/1/2022)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deve essere una data &gt;= 1/1/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modalita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unique_list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maschio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Femmina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titolo studio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elementare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">superiore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">università</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sf12_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eccellente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molto buona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passabile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scadente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sf12_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sì parecchio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sì parzialmente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No per nulla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sì/No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">error type</t>
   </si>
   <si>
     <t xml:space="preserve">non compreso tra</t>
@@ -529,33 +526,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="43.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="44.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="43.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="44.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,273 +582,172 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="0" t="str">
+        <f aca="false">H2</f>
+        <v>Identificativo paziente</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="0" t="str">
-        <f aca="false">B2</f>
-        <v>Identificativo paziente</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="0" t="str">
-        <f aca="false">L2</f>
-        <v>Identificativo paziente</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>21</v>
+      <c r="J3" s="0" t="str">
+        <f aca="false">H3</f>
+        <v>Altezza (m)</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="0" t="str">
-        <f aca="false">B3</f>
-        <v>Altezza (m)</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="0" t="str">
-        <f aca="false">L3</f>
-        <v>Altezza (m)</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="0" t="str">
-        <f aca="false">B4</f>
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="0" t="str">
+        <f aca="false">H4</f>
         <v>Sesso</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="0" t="str">
-        <f aca="false">L4</f>
-        <v>Sesso</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>36</v>
+      <c r="K4" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="0" t="str">
+        <f aca="false">H5</f>
+        <v>Paziente diabetico</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="0" t="str">
-        <f aca="false">B5</f>
-        <v>Paziente diabetico</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="0" t="str">
-        <f aca="false">L5</f>
-        <v>Paziente diabetico</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="0" t="str">
+        <f aca="false">H6</f>
+        <v>Data arruolamento</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="J7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="K7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>44562</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="0" t="str">
-        <f aca="false">B6</f>
-        <v>Data arruolamento</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="0" t="str">
-        <f aca="false">L6</f>
-        <v>Data arruolamento</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D6" type="list">
+  <dataValidations count="3">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C6" type="list">
       <formula1>modalita_output!$G$2:$G$1048576</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O2:O6" type="list">
-      <formula1>modalita_struttura!$H$3:$H$5</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J1:J6 I2:I6" type="list">
-      <formula1>modalita_struttura!$F$3:$F$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E6" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D6" type="list">
       <formula1>modalita_struttura!$D$3:$D$10</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C6" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2:B6" type="list">
       <formula1>modalita_struttura!$B$3:$B$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -883,10 +772,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.69"/>
@@ -896,23 +785,23 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="G1" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -923,10 +812,10 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -936,10 +825,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="e">
         <v>#NAME?</v>
@@ -947,10 +836,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" s="0" t="e">
         <v>#NAME?</v>
@@ -958,10 +847,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="e">
         <v>#NAME?</v>
@@ -969,10 +858,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="G7" s="0" t="e">
         <v>#NAME?</v>
@@ -980,106 +869,106 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1101,10 +990,10 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.31"/>
@@ -1117,88 +1006,91 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="10" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
